--- a/medicine/Enfance/Jacob_Abbott/Jacob_Abbott.xlsx
+++ b/medicine/Enfance/Jacob_Abbott/Jacob_Abbott.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jacob Abbott, né le 14 novembre 1803 et décédé le 31 octobre 1879, est un écrivain américain.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Abbott est né à Hallowell dans le Maine, son père Jacob et sa mère Betsey Abbott. Il est diplômé du Bowdoin College en 1820, il étudie à Andover Theological Seminary de 1821 à 1824 ; il fut précepteur de 1824 à 1825, et de 1825 à 1829, professeur de mathématiques et de philosophie naturelle à l'Amherst College. En 1826, il a été autorisé à prêcher par l'Hampshire Association et a fondé l'école Mount Vernon pour jeunes filles à Boston en 1829, et a été le directeur entre 1829 à 1833. Il devient pasteur de l'église congrégationaliste Eliot (qu'il a fondée), à Roxbury entre 1834 à 1835. Il est aussi, avec ses frères, l'un des fondateurs, et entre 1843 à 1851, un des processeurs principaux de l'Institut d'Abbott, et entre 1845 à 1848 de l'école Mount Vernon à New York.
 Il est un auteur prolifique, écrivait des fictions pour enfants, des histoires courtes, des biographies, des livres religieux pour le lecteur ordinaire, et quelques ouvrages de vulgarisation scientifique. 
